--- a/Ergebnisse_Teil_1/Study_15_10_2025_Taguchi_Modell_1.2_KS_Holdout_seed_42/metrics/Trial_385__Reeval_Taguchi_Modell_1.2.xlsx
+++ b/Ergebnisse_Teil_1/Study_15_10_2025_Taguchi_Modell_1.2_KS_Holdout_seed_42/metrics/Trial_385__Reeval_Taguchi_Modell_1.2.xlsx
@@ -5420,28 +5420,28 @@
                   <c:v>0.4425200223922729</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>8.450569152832031</c:v>
+                  <c:v>8.450566291809082</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>46.251953125</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>54.43226623535156</c:v>
+                  <c:v>54.43225479125977</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>89.39026641845703</c:v>
+                  <c:v>89.39027404785156</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>29.66619110107422</c:v>
+                  <c:v>29.66618537902832</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.1071873158216476</c:v>
+                  <c:v>0.1072108820080757</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.4065312147140503</c:v>
+                  <c:v>0.4065326750278473</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>91.27906799316406</c:v>
+                  <c:v>91.27909088134766</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>0.6186023950576782</c:v>
@@ -5453,25 +5453,25 @@
                   <c:v>0.09038404375314713</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.01153871789574623</c:v>
+                  <c:v>0.01154460851103067</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>75.60662841796875</c:v>
+                  <c:v>75.60663604736328</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>91.05988311767578</c:v>
+                  <c:v>91.05989074707031</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>81.04612731933594</c:v>
+                  <c:v>81.046142578125</c:v>
                 </c:pt>
                 <c:pt idx="16">
                   <c:v>69.70022583007812</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>94.60488128662109</c:v>
+                  <c:v>94.60487365722656</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.03430907428264618</c:v>
+                  <c:v>0.03431570157408714</c:v>
                 </c:pt>
                 <c:pt idx="19">
                   <c:v>94.77045440673828</c:v>
@@ -5480,67 +5480,67 @@
                   <c:v>68.86098480224609</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>89.59951782226562</c:v>
+                  <c:v>89.59952545166016</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>-10.15257263183594</c:v>
+                  <c:v>-10.15258502960205</c:v>
                 </c:pt>
                 <c:pt idx="23">
                   <c:v>0.267075389623642</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>-0.40349280834198</c:v>
+                  <c:v>-0.403491348028183</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>-0.02372841723263264</c:v>
+                  <c:v>-0.02371074259281158</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>-0.5588181018829346</c:v>
+                  <c:v>-0.5588078498840332</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>0.03996318578720093</c:v>
+                  <c:v>0.03996244817972183</c:v>
                 </c:pt>
                 <c:pt idx="28">
                   <c:v>76.14778900146484</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>0.0489097572863102</c:v>
+                  <c:v>0.04889576882123947</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>93.07683563232422</c:v>
+                  <c:v>93.07685089111328</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>94.01397705078125</c:v>
+                  <c:v>94.01396942138672</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>0.4052955210208893</c:v>
+                  <c:v>0.4053058326244354</c:v>
                 </c:pt>
                 <c:pt idx="33">
                   <c:v>88.43291473388672</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>-0.7108443379402161</c:v>
+                  <c:v>-0.7108502388000488</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>89.14560699462891</c:v>
+                  <c:v>89.14559173583984</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>0.1207761839032173</c:v>
+                  <c:v>0.1207710281014442</c:v>
                 </c:pt>
                 <c:pt idx="37">
                   <c:v>78.898681640625</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>72.24720764160156</c:v>
+                  <c:v>72.24721527099609</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>15.92728614807129</c:v>
+                  <c:v>15.92728519439697</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>92.71307373046875</c:v>
+                  <c:v>92.71306610107422</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>0.3124231696128845</c:v>
+                  <c:v>0.3124040365219116</c:v>
                 </c:pt>
                 <c:pt idx="42">
                   <c:v>92.17157745361328</c:v>
@@ -5549,46 +5549,46 @@
                   <c:v>95.76584625244141</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>-3.288728952407837</c:v>
+                  <c:v>-3.288705348968506</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>0.5450237989425659</c:v>
+                  <c:v>0.5450178980827332</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>92.16390991210938</c:v>
+                  <c:v>92.16390228271484</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>1.074661135673523</c:v>
+                  <c:v>1.07466197013855</c:v>
                 </c:pt>
                 <c:pt idx="48">
                   <c:v>0.1950366497039795</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>91.87518310546875</c:v>
+                  <c:v>91.87516784667969</c:v>
                 </c:pt>
                 <c:pt idx="50">
                   <c:v>80.20232391357422</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>0.9709526300430298</c:v>
+                  <c:v>0.9709511995315552</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>93.00592041015625</c:v>
+                  <c:v>93.00590515136719</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>90.93209075927734</c:v>
+                  <c:v>90.93209838867188</c:v>
                 </c:pt>
                 <c:pt idx="54">
                   <c:v>93.77197265625</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>0.4237616062164307</c:v>
+                  <c:v>0.4237549602985382</c:v>
                 </c:pt>
                 <c:pt idx="56">
                   <c:v>95.85997009277344</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>92.37895965576172</c:v>
+                  <c:v>92.37893676757812</c:v>
                 </c:pt>
                 <c:pt idx="58">
                   <c:v>0.01077285688370466</c:v>
@@ -5600,25 +5600,25 @@
                   <c:v>-1.129398822784424</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>0.9030687212944031</c:v>
+                  <c:v>0.9030826687812805</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>0.776435911655426</c:v>
+                  <c:v>0.7764351367950439</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>0.7432888746261597</c:v>
+                  <c:v>0.743319034576416</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>88.66061401367188</c:v>
+                  <c:v>88.66060638427734</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>3.057244777679443</c:v>
+                  <c:v>3.057232856750488</c:v>
                 </c:pt>
                 <c:pt idx="66">
                   <c:v>81.85745239257812</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>0.221758559346199</c:v>
+                  <c:v>0.2217467725276947</c:v>
                 </c:pt>
                 <c:pt idx="68">
                   <c:v>94.56734466552734</c:v>
@@ -5630,25 +5630,25 @@
                   <c:v>96.1630859375</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>84.71849822998047</c:v>
+                  <c:v>84.71849060058594</c:v>
                 </c:pt>
                 <c:pt idx="72">
                   <c:v>91.62501525878906</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>0.3991038501262665</c:v>
+                  <c:v>0.3990935385227203</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>93.32140350341797</c:v>
+                  <c:v>93.32138061523438</c:v>
                 </c:pt>
                 <c:pt idx="75">
                   <c:v>97.15907287597656</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>76.69892120361328</c:v>
+                  <c:v>76.69892883300781</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>88.23445129394531</c:v>
+                  <c:v>88.23446655273438</c:v>
                 </c:pt>
                 <c:pt idx="78">
                   <c:v>-0.5227210521697998</c:v>
@@ -5657,34 +5657,34 @@
                   <c:v>76.62958526611328</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>92.26592254638672</c:v>
+                  <c:v>92.26593780517578</c:v>
                 </c:pt>
                 <c:pt idx="81">
                   <c:v>68.45909118652344</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>0.2331632524728775</c:v>
+                  <c:v>0.2331625074148178</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>0.1391487270593643</c:v>
+                  <c:v>0.1391575634479523</c:v>
                 </c:pt>
                 <c:pt idx="84">
                   <c:v>94.44219207763672</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>0.7861505150794983</c:v>
+                  <c:v>0.7861416935920715</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>-11.57013607025146</c:v>
+                  <c:v>-11.57014560699463</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>94.31975555419922</c:v>
+                  <c:v>94.31974792480469</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>-0.349043071269989</c:v>
+                  <c:v>-0.3490283489227295</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>93.17479705810547</c:v>
+                  <c:v>93.17481994628906</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6411,7 +6411,7 @@
         <v>0</v>
       </c>
       <c r="F3">
-        <v>8.450569152832031</v>
+        <v>8.450566291809082</v>
       </c>
       <c r="G3">
         <v>110</v>
@@ -6475,7 +6475,7 @@
         <v>0</v>
       </c>
       <c r="F5">
-        <v>54.43226623535156</v>
+        <v>54.43225479125977</v>
       </c>
       <c r="G5">
         <v>110</v>
@@ -6507,7 +6507,7 @@
         <v>93.8986</v>
       </c>
       <c r="F6">
-        <v>89.39026641845703</v>
+        <v>89.39027404785156</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -6539,7 +6539,7 @@
         <v>48.757</v>
       </c>
       <c r="F7">
-        <v>29.66619110107422</v>
+        <v>29.66618537902832</v>
       </c>
       <c r="G7">
         <v>110</v>
@@ -6571,7 +6571,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.1071873158216476</v>
+        <v>0.1072108820080757</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -6591,7 +6591,7 @@
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.4065312147140503</v>
+        <v>0.4065326750278473</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -6611,7 +6611,7 @@
         <v>90.36060000000001</v>
       </c>
       <c r="F10">
-        <v>91.27906799316406</v>
+        <v>91.27909088134766</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -6691,7 +6691,7 @@
         <v>0</v>
       </c>
       <c r="F14">
-        <v>0.01153871789574623</v>
+        <v>0.01154460851103067</v>
       </c>
     </row>
     <row r="15" spans="1:19">
@@ -6711,7 +6711,7 @@
         <v>77.4808</v>
       </c>
       <c r="F15">
-        <v>75.60662841796875</v>
+        <v>75.60663604736328</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -6731,7 +6731,7 @@
         <v>92.98990000000001</v>
       </c>
       <c r="F16">
-        <v>91.05988311767578</v>
+        <v>91.05989074707031</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -6751,7 +6751,7 @@
         <v>80.1264</v>
       </c>
       <c r="F17">
-        <v>81.04612731933594</v>
+        <v>81.046142578125</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -6791,7 +6791,7 @@
         <v>95.6887</v>
       </c>
       <c r="F19">
-        <v>94.60488128662109</v>
+        <v>94.60487365722656</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -6811,7 +6811,7 @@
         <v>0</v>
       </c>
       <c r="F20">
-        <v>0.03430907428264618</v>
+        <v>0.03431570157408714</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -6871,7 +6871,7 @@
         <v>93.91419999999999</v>
       </c>
       <c r="F23">
-        <v>89.59951782226562</v>
+        <v>89.59952545166016</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -6891,7 +6891,7 @@
         <v>0</v>
       </c>
       <c r="F24">
-        <v>-10.15257263183594</v>
+        <v>-10.15258502960205</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -6931,7 +6931,7 @@
         <v>0</v>
       </c>
       <c r="F26">
-        <v>-0.40349280834198</v>
+        <v>-0.403491348028183</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -6951,7 +6951,7 @@
         <v>0</v>
       </c>
       <c r="F27">
-        <v>-0.02372841723263264</v>
+        <v>-0.02371074259281158</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -6971,7 +6971,7 @@
         <v>0</v>
       </c>
       <c r="F28">
-        <v>-0.5588181018829346</v>
+        <v>-0.5588078498840332</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -6991,7 +6991,7 @@
         <v>0</v>
       </c>
       <c r="F29">
-        <v>0.03996318578720093</v>
+        <v>0.03996244817972183</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -7031,7 +7031,7 @@
         <v>0</v>
       </c>
       <c r="F31">
-        <v>0.0489097572863102</v>
+        <v>0.04889576882123947</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -7051,7 +7051,7 @@
         <v>94.3853</v>
       </c>
       <c r="F32">
-        <v>93.07683563232422</v>
+        <v>93.07685089111328</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -7071,7 +7071,7 @@
         <v>94.9969</v>
       </c>
       <c r="F33">
-        <v>94.01397705078125</v>
+        <v>94.01396942138672</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -7091,7 +7091,7 @@
         <v>0</v>
       </c>
       <c r="F34">
-        <v>0.4052955210208893</v>
+        <v>0.4053058326244354</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -7131,7 +7131,7 @@
         <v>0</v>
       </c>
       <c r="F36">
-        <v>-0.7108443379402161</v>
+        <v>-0.7108502388000488</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -7151,7 +7151,7 @@
         <v>93.1272</v>
       </c>
       <c r="F37">
-        <v>89.14560699462891</v>
+        <v>89.14559173583984</v>
       </c>
     </row>
     <row r="38" spans="1:6">
@@ -7171,7 +7171,7 @@
         <v>0</v>
       </c>
       <c r="F38">
-        <v>0.1207761839032173</v>
+        <v>0.1207710281014442</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -7211,7 +7211,7 @@
         <v>60.3363</v>
       </c>
       <c r="F40">
-        <v>72.24720764160156</v>
+        <v>72.24721527099609</v>
       </c>
     </row>
     <row r="41" spans="1:6">
@@ -7231,7 +7231,7 @@
         <v>69.4635</v>
       </c>
       <c r="F41">
-        <v>15.92728614807129</v>
+        <v>15.92728519439697</v>
       </c>
     </row>
     <row r="42" spans="1:6">
@@ -7251,7 +7251,7 @@
         <v>94.5993</v>
       </c>
       <c r="F42">
-        <v>92.71307373046875</v>
+        <v>92.71306610107422</v>
       </c>
     </row>
     <row r="43" spans="1:6">
@@ -7271,7 +7271,7 @@
         <v>0</v>
       </c>
       <c r="F43">
-        <v>0.3124231696128845</v>
+        <v>0.3124040365219116</v>
       </c>
     </row>
     <row r="44" spans="1:6">
@@ -7331,7 +7331,7 @@
         <v>0</v>
       </c>
       <c r="F46">
-        <v>-3.288728952407837</v>
+        <v>-3.288705348968506</v>
       </c>
     </row>
     <row r="47" spans="1:6">
@@ -7351,7 +7351,7 @@
         <v>0</v>
       </c>
       <c r="F47">
-        <v>0.5450237989425659</v>
+        <v>0.5450178980827332</v>
       </c>
     </row>
     <row r="48" spans="1:6">
@@ -7371,7 +7371,7 @@
         <v>96.9224</v>
       </c>
       <c r="F48">
-        <v>92.16390991210938</v>
+        <v>92.16390228271484</v>
       </c>
     </row>
     <row r="49" spans="1:6">
@@ -7391,7 +7391,7 @@
         <v>0</v>
       </c>
       <c r="F49">
-        <v>1.074661135673523</v>
+        <v>1.07466197013855</v>
       </c>
     </row>
     <row r="50" spans="1:6">
@@ -7431,7 +7431,7 @@
         <v>95.00530000000001</v>
       </c>
       <c r="F51">
-        <v>91.87518310546875</v>
+        <v>91.87516784667969</v>
       </c>
     </row>
     <row r="52" spans="1:6">
@@ -7471,7 +7471,7 @@
         <v>0</v>
       </c>
       <c r="F53">
-        <v>0.9709526300430298</v>
+        <v>0.9709511995315552</v>
       </c>
     </row>
     <row r="54" spans="1:6">
@@ -7491,7 +7491,7 @@
         <v>93.3826</v>
       </c>
       <c r="F54">
-        <v>93.00592041015625</v>
+        <v>93.00590515136719</v>
       </c>
     </row>
     <row r="55" spans="1:6">
@@ -7511,7 +7511,7 @@
         <v>80.4803</v>
       </c>
       <c r="F55">
-        <v>90.93209075927734</v>
+        <v>90.93209838867188</v>
       </c>
     </row>
     <row r="56" spans="1:6">
@@ -7551,7 +7551,7 @@
         <v>0</v>
       </c>
       <c r="F57">
-        <v>0.4237616062164307</v>
+        <v>0.4237549602985382</v>
       </c>
     </row>
     <row r="58" spans="1:6">
@@ -7591,7 +7591,7 @@
         <v>94.0821</v>
       </c>
       <c r="F59">
-        <v>92.37895965576172</v>
+        <v>92.37893676757812</v>
       </c>
     </row>
     <row r="60" spans="1:6">
@@ -7671,7 +7671,7 @@
         <v>0</v>
       </c>
       <c r="F63">
-        <v>0.9030687212944031</v>
+        <v>0.9030826687812805</v>
       </c>
     </row>
     <row r="64" spans="1:6">
@@ -7691,7 +7691,7 @@
         <v>0</v>
       </c>
       <c r="F64">
-        <v>0.776435911655426</v>
+        <v>0.7764351367950439</v>
       </c>
     </row>
     <row r="65" spans="1:6">
@@ -7711,7 +7711,7 @@
         <v>0</v>
       </c>
       <c r="F65">
-        <v>0.7432888746261597</v>
+        <v>0.743319034576416</v>
       </c>
     </row>
     <row r="66" spans="1:6">
@@ -7731,7 +7731,7 @@
         <v>91.69540000000001</v>
       </c>
       <c r="F66">
-        <v>88.66061401367188</v>
+        <v>88.66060638427734</v>
       </c>
     </row>
     <row r="67" spans="1:6">
@@ -7751,7 +7751,7 @@
         <v>0</v>
       </c>
       <c r="F67">
-        <v>3.057244777679443</v>
+        <v>3.057232856750488</v>
       </c>
     </row>
     <row r="68" spans="1:6">
@@ -7791,7 +7791,7 @@
         <v>0</v>
       </c>
       <c r="F69">
-        <v>0.221758559346199</v>
+        <v>0.2217467725276947</v>
       </c>
     </row>
     <row r="70" spans="1:6">
@@ -7871,7 +7871,7 @@
         <v>89.2407</v>
       </c>
       <c r="F73">
-        <v>84.71849822998047</v>
+        <v>84.71849060058594</v>
       </c>
     </row>
     <row r="74" spans="1:6">
@@ -7911,7 +7911,7 @@
         <v>0</v>
       </c>
       <c r="F75">
-        <v>0.3991038501262665</v>
+        <v>0.3990935385227203</v>
       </c>
     </row>
     <row r="76" spans="1:6">
@@ -7931,7 +7931,7 @@
         <v>94.8021</v>
       </c>
       <c r="F76">
-        <v>93.32140350341797</v>
+        <v>93.32138061523438</v>
       </c>
     </row>
     <row r="77" spans="1:6">
@@ -7971,7 +7971,7 @@
         <v>79.8989</v>
       </c>
       <c r="F78">
-        <v>76.69892120361328</v>
+        <v>76.69892883300781</v>
       </c>
     </row>
     <row r="79" spans="1:6">
@@ -7991,7 +7991,7 @@
         <v>88.10899999999999</v>
       </c>
       <c r="F79">
-        <v>88.23445129394531</v>
+        <v>88.23446655273438</v>
       </c>
     </row>
     <row r="80" spans="1:6">
@@ -8051,7 +8051,7 @@
         <v>94.37</v>
       </c>
       <c r="F82">
-        <v>92.26592254638672</v>
+        <v>92.26593780517578</v>
       </c>
     </row>
     <row r="83" spans="1:6">
@@ -8091,7 +8091,7 @@
         <v>0</v>
       </c>
       <c r="F84">
-        <v>0.2331632524728775</v>
+        <v>0.2331625074148178</v>
       </c>
     </row>
     <row r="85" spans="1:6">
@@ -8111,7 +8111,7 @@
         <v>0</v>
       </c>
       <c r="F85">
-        <v>0.1391487270593643</v>
+        <v>0.1391575634479523</v>
       </c>
     </row>
     <row r="86" spans="1:6">
@@ -8151,7 +8151,7 @@
         <v>0</v>
       </c>
       <c r="F87">
-        <v>0.7861505150794983</v>
+        <v>0.7861416935920715</v>
       </c>
     </row>
     <row r="88" spans="1:6">
@@ -8171,7 +8171,7 @@
         <v>0</v>
       </c>
       <c r="F88">
-        <v>-11.57013607025146</v>
+        <v>-11.57014560699463</v>
       </c>
     </row>
     <row r="89" spans="1:6">
@@ -8191,7 +8191,7 @@
         <v>97.99339999999999</v>
       </c>
       <c r="F89">
-        <v>94.31975555419922</v>
+        <v>94.31974792480469</v>
       </c>
     </row>
     <row r="90" spans="1:6">
@@ -8211,7 +8211,7 @@
         <v>0</v>
       </c>
       <c r="F90">
-        <v>-0.349043071269989</v>
+        <v>-0.3490283489227295</v>
       </c>
     </row>
     <row r="91" spans="1:6">
@@ -8231,7 +8231,7 @@
         <v>94.4374</v>
       </c>
       <c r="F91">
-        <v>93.17479705810547</v>
+        <v>93.17481994628906</v>
       </c>
     </row>
     <row r="92" spans="1:6">
